--- a/tab recup valeur.xlsx
+++ b/tab recup valeur.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41b957a5f373fa68/Documents/insa lyon/DD/Cours/Hiv 2025/Vérification et validation/projet/Projet_MEC8211_Couette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{CE5E6969-56ED-4D85-86D2-F7300A8CB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295D5F19-AF79-4B00-AD3E-26093C96573E}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{CE5E6969-56ED-4D85-86D2-F7300A8CB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351C84BE-7B87-4A3E-BFF3-D28EB065E51D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B229F5E-783A-4BEB-99B2-B9008BC5F977}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1B229F5E-783A-4BEB-99B2-B9008BC5F977}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="a">Feuil1!$E$12</definedName>
-    <definedName name="delta">Feuil1!$E$10</definedName>
-    <definedName name="dpdx">Feuil1!$E$12</definedName>
-    <definedName name="mu">Feuil1!$E$8</definedName>
-    <definedName name="P">Feuil1!$H$8</definedName>
-    <definedName name="Re">Feuil1!$E$11</definedName>
-    <definedName name="rho">Feuil1!$E$9</definedName>
-    <definedName name="U">Feuil1!$H$9</definedName>
+    <definedName name="a">Feuil1!$E$13</definedName>
+    <definedName name="delta">Feuil1!$E$11</definedName>
+    <definedName name="dpdx">Feuil1!$E$13</definedName>
+    <definedName name="mu">Feuil1!$E$9</definedName>
+    <definedName name="P">Feuil1!$H$9</definedName>
+    <definedName name="Re">Feuil1!$E$12</definedName>
+    <definedName name="rho">Feuil1!$E$10</definedName>
+    <definedName name="U">Feuil1!$H$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Paramètres choisis :</t>
   </si>
@@ -80,22 +80,10 @@
     <t>NY = 20</t>
   </si>
   <si>
-    <t>Ordonnée : 0,1 0,3 0,5 0,7 0,9 m</t>
-  </si>
-  <si>
-    <t>Ordre p^</t>
-  </si>
-  <si>
     <t>GCI individuel</t>
   </si>
   <si>
-    <t xml:space="preserve">Moyenne GCI </t>
-  </si>
-  <si>
     <t>U num</t>
-  </si>
-  <si>
-    <t>m/s</t>
   </si>
   <si>
     <t>Théorique</t>
@@ -110,23 +98,71 @@
     <t>U_D</t>
   </si>
   <si>
-    <t>U_val</t>
+    <t>E</t>
   </si>
   <si>
-    <t>Résultat Monte-Carlo</t>
+    <t>Colonne1</t>
   </si>
   <si>
-    <t>Moyenne</t>
+    <t>Colonne2</t>
   </si>
   <si>
-    <t>Ecart-type</t>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>Colonne6</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p^-p / p</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>U_input</t>
+  </si>
+  <si>
+    <t>\delta_{min}</t>
+  </si>
+  <si>
+    <t>\delta_{max}</t>
+  </si>
+  <si>
+    <t>U_val (m/s)</t>
+  </si>
+  <si>
+    <t>U_val (%)</t>
+  </si>
+  <si>
+    <t>Prédiction</t>
+  </si>
+  <si>
+    <t>k u_val</t>
+  </si>
+  <si>
+    <t>delta_{min}</t>
+  </si>
+  <si>
+    <t>delta_{max}</t>
+  </si>
+  <si>
+    <t>k u_{val}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,19 +184,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,12 +216,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +323,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>U</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> en fonction de y</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -250,7 +421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$16:$H$16</c:f>
+              <c:f>Feuil1!$D$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -274,24 +445,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$D$17:$H$17</c:f>
+              <c:f>Feuil1!$D$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.14500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.40499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90999999999999992</c:v>
+                  <c:v>0.80499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99</c:v>
+                  <c:v>0.94500000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,19 +535,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.19132289999999999</c:v>
+                  <c:v>0.14706911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50137962000000003</c:v>
+                  <c:v>0.40277829999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73868188000000001</c:v>
+                  <c:v>0.61980851999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90401445000000002</c:v>
+                  <c:v>0.79806732999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99792338000000003</c:v>
+                  <c:v>0.94898307000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,6 +589,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7402874175618464E-2"/>
+                  <c:y val="0.34254777955561505"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$J$21:$S$21</c:f>
@@ -464,34 +686,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.8784559999999993E-2</c:v>
+                  <c:v>7.4744389999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27689047</c:v>
+                  <c:v>0.21430405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43553106000000003</c:v>
+                  <c:v>0.34381970000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57470578999999999</c:v>
+                  <c:v>0.46322103999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69441463999999997</c:v>
+                  <c:v>0.57254676000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79465015999999999</c:v>
+                  <c:v>0.67197852999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87540375999999998</c:v>
+                  <c:v>0.76179306999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93676349999999997</c:v>
+                  <c:v>0.84221409999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97887760999999995</c:v>
+                  <c:v>0.91342548000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.00064303</c:v>
+                  <c:v>0.97532485999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,8 +772,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1036160070273707"/>
-                  <c:y val="-6.3342363595040765E-2"/>
+                  <c:x val="3.1889966135346802E-2"/>
+                  <c:y val="0.38339445632291475"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -660,64 +882,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.9840559999999999E-2</c:v>
+                  <c:v>3.7555680000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14455735</c:v>
+                  <c:v>0.11015303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23430973999999999</c:v>
+                  <c:v>0.18022560000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31909767</c:v>
+                  <c:v>0.24776148000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39892105999999999</c:v>
+                  <c:v>0.31274988999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47377991000000003</c:v>
+                  <c:v>0.37518323999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54367416999999996</c:v>
+                  <c:v>0.43505874999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60860384999999995</c:v>
+                  <c:v>0.49237985000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66856892999999995</c:v>
+                  <c:v>0.54715720999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72356942000000002</c:v>
+                  <c:v>0.59940886000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77360530000000005</c:v>
+                  <c:v>0.64915937999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81867656</c:v>
+                  <c:v>0.69643770000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85878326999999999</c:v>
+                  <c:v>0.74127377000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89392548999999999</c:v>
+                  <c:v>0.78369445000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92410228000000005</c:v>
+                  <c:v>0.82371881000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94931111999999995</c:v>
+                  <c:v>0.86135295999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96955669</c:v>
+                  <c:v>0.89658848999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98487902000000005</c:v>
+                  <c:v>0.92941616999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99525520999999995</c:v>
+                  <c:v>0.95982349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.00033726</c:v>
+                  <c:v>0.98761893999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,6 +966,7 @@
         <c:axId val="358949887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -947,7 +1170,1877 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>E</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5636959278629784"/>
+                  <c:y val="-5.8312737449256025E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Feuil1!$AC$14:$AG$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.41089462621163392</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16401107519915417</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11284811454653039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.9699794855857592E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0942933383983687E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Feuil1!$AC$14:$AG$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.41089462621163392</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16401107519915417</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11284811454653039</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.9699794855857592E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0942933383983687E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$W$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6827586206896382E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1209876543208475E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5199999999999888E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4645962732919766E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4814814814805573E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>delta_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56182766250862159"/>
+                  <c:y val="0.14874415889685541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$AC$8:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.4042118675909443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16613206285347501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11536811454653038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.1164391129149563E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0594785235835631E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>delta_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43237965989799998"/>
+                  <c:y val="-0.29768046143457993"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$AC$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41757738483232354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16189008754483333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1103281145465304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8235198582565622E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1291081532131743E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Prédiction 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Feuil1!$O$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.66610000000000003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Feuil1!$O$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.66610000000000003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Prédiction 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Feuil1!$O$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.11400000000000007</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Feuil1!$O$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.11400000000000007</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.900000000000038E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830441311"/>
+        <c:axId val="1830439391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830441311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>y(m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830439391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830439391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830441311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$D$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$D$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5039999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34473999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46412999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57325000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67229000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76170000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84187999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91308999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53DE-4B37-AAE1-0754B362ABB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="397654895"/>
+        <c:axId val="397665455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="397654895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397665455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397665455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397654895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$D$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.81E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1199999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.013E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.189E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.248E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.208E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0619999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.218E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6670000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E97-4542-B85E-A93FBAF74FC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="397040271"/>
+        <c:axId val="397040751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="397040271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397040751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397040751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397040271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1503,6 +3596,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1514,7 +5155,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>667140</xdr:colOff>
+      <xdr:colOff>495863</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>153470</xdr:rowOff>
     </xdr:to>
@@ -1551,16 +5192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>505216</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>71187</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385176</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>265514</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>54486</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>365873</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1585,7 +5226,150 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FC550A-7BCA-174D-5A19-6C32C43F0E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>545326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390607</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D2212E-7E25-B552-949B-E720F676C5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>721995</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A8C4BE-09AF-CE1B-9F1B-5B0BD4CD5EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3105F367-D606-4A2F-A234-109E8E91781C}" name="Tableau1" displayName="Tableau1" ref="C7:H13" totalsRowShown="0">
+  <autoFilter ref="C7:H13" xr:uid="{3105F367-D606-4A2F-A234-109E8E91781C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D7E2F963-6534-44B7-A848-5D62FC709953}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{64F5C198-30AF-4924-B519-CC11B0111916}" name="Colonne2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{525BEEC7-463B-443C-9E91-D568CD35C4B5}" name="Colonne3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{10492310-0022-4DB3-8253-59B7A9922CA7}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{F9512374-9EFA-490B-A9DF-03719A00AA83}" name="Colonne5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{43EF5ADF-ABE5-4CBB-9A4F-B710E9209A3F}" name="Colonne6" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2ED163EF-8035-4A54-9D74-3E3C73A84DE9}" name="Tableau2" displayName="Tableau2" ref="C15:H18" totalsRowShown="0">
+  <autoFilter ref="C15:H18" xr:uid="{2ED163EF-8035-4A54-9D74-3E3C73A84DE9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{76699BAE-C38A-406C-91F6-388B9A37B6E5}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{54932FE4-6AF3-4BEB-BD59-40FF345456B9}" name="Colonne2"/>
+    <tableColumn id="3" xr3:uid="{CF137404-9800-445E-A1B2-D3B21E856661}" name="Colonne3"/>
+    <tableColumn id="4" xr3:uid="{1285F597-0F10-4DC8-862E-0B8F92F9D784}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{C908E76A-E145-48C5-B741-EFB4D226EDA8}" name="Colonne5"/>
+    <tableColumn id="6" xr3:uid="{14D34CD2-AB61-4945-870D-4267C7F9A229}" name="Colonne6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1885,182 +5669,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C127CFE7-839D-4A27-9BA9-5910BBB87897}">
-  <dimension ref="C6:AK34"/>
+  <dimension ref="C7:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="49" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="32" max="32" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <f>LN((J17-U22)/(U22-AE28))/LN(2)</f>
+        <v>1.7770025835807262</v>
+      </c>
+      <c r="L7">
+        <f>LN((K17-V22)/(V22-AF28))/LN(2)</f>
+        <v>0.71354760398907557</v>
+      </c>
+      <c r="M7">
+        <f>LN((L17-W22)/(W22-AG28))/LN(2)</f>
+        <v>1.6219254164444656</v>
+      </c>
+      <c r="N7">
+        <f>LN((M17-X22)/(X22-AH28))/LN(2)</f>
+        <v>3.0165610131553593</v>
+      </c>
+      <c r="O7">
+        <f>LN((N17-Y22)/(Y22-AI28))/LN(2)</f>
+        <v>2.7034315955902257</v>
+      </c>
+      <c r="Q7">
+        <v>1.94</v>
+      </c>
+      <c r="R7">
+        <v>1.91</v>
+      </c>
+      <c r="S7">
+        <v>1.96</v>
+      </c>
+      <c r="T7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U7">
+        <v>1.99</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AC7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
     </row>
-    <row r="7" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0.19132289999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.50137962000000003</v>
-      </c>
-      <c r="L7">
-        <v>0.73868188000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.90401445000000002</v>
-      </c>
-      <c r="N7">
-        <v>0.99792338000000003</v>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <f>(K7-2)/2</f>
+        <v>-0.11149870820963692</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:O8" si="0">(L7-2)/2</f>
+        <v>-0.64322619800546221</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.18903729177776718</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.50828050657767965</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.35171579779511286</v>
+      </c>
+      <c r="Q8">
+        <f>(Q7-2)/2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:U8" si="1">(R7-2)/2</f>
+        <v>-4.500000000000004E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>4.9999999999998934E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="W8">
+        <f>(U22-D18)/D18</f>
+        <v>6.6827586206896382E-3</v>
+      </c>
+      <c r="X8">
+        <f>(V22-E18)/E18</f>
+        <v>-2.1209876543208475E-3</v>
+      </c>
+      <c r="Y8">
+        <f>(W22-F18)/F18</f>
+        <v>-2.5199999999999888E-3</v>
+      </c>
+      <c r="Z8">
+        <f>(X22-G18)/G18</f>
+        <v>-1.4645962732919766E-3</v>
+      </c>
+      <c r="AA8">
+        <f>(Y22-H18)/H18</f>
+        <v>3.4814814814805573E-4</v>
+      </c>
+      <c r="AC8">
+        <f>W8-2*D31</f>
+        <v>-0.4042118675909443</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8:AG8" si="2">X8-2*E31</f>
+        <v>-0.16613206285347501</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>-0.11536811454653038</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>-9.1164391129149563E-2</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>-8.0594785235835631E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <f>2*Re*a</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <f>2*Re*a</f>
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <f>Re*mu/delta</f>
         <v>1</v>
       </c>
+      <c r="AC10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
     </row>
-    <row r="10" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <f>H8*2*mu*H9/(-4*delta*delta)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>0.5</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H9*2*mu*H10/(-4*delta*delta)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AC11">
+        <f>W8+2*D31</f>
+        <v>0.41757738483232354</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" ref="AD11:AG11" si="3">X8+2*E31</f>
+        <v>0.16189008754483333</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>0.1103281145465304</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>8.8235198582565622E-2</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>8.1291081532131743E-2</v>
+      </c>
     </row>
-    <row r="12" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+      <c r="W12">
+        <f>1.25/3*ABS(U22-J17)</f>
+        <v>4.5837916666666145E-4</v>
+      </c>
+      <c r="X12">
+        <f>1.25/3*ABS(V22-K17)</f>
+        <v>5.6779166666668756E-4</v>
+      </c>
+      <c r="Y12">
+        <f>1.25/3*ABS(W22-L17)</f>
+        <v>1.5068666666666806E-3</v>
+      </c>
+      <c r="Z12">
+        <f>1.25/3*ABS(X22-M17)</f>
+        <v>2.3973624999999721E-3</v>
+      </c>
+      <c r="AA12">
+        <f>1.25/3*ABS(Y22-N17)</f>
+        <v>1.5225291666666938E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="4">
-        <f>AVERAGE(Z15:AD15)</f>
-        <v>1.9779096922412578</v>
+      <c r="E13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="AF13" t="s">
-        <v>16</v>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <f>2*D31</f>
+        <v>0.41089462621163392</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14:AG14" si="4">2*E31</f>
+        <v>0.16401107519915417</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="4"/>
+        <v>0.11284811454653039</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>8.9699794855857592E-2</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="4"/>
+        <v>8.0942933383983687E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="Z15">
-        <f>LN((J17-U22)/(U22-AE28))/LN(2)</f>
-        <v>2.1594296145680794</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ref="AA15:AD15" si="0">LN((K17-V22)/(V22-AF28))/LN(2)</f>
-        <v>1.8395988651684947</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>1.9438881392185354</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
-        <v>2.1020149413007263</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="0"/>
-        <v>1.8446169009504525</v>
-      </c>
-      <c r="AF15">
-        <f>1.25/3*ABS(U22-J17)</f>
-        <v>4.3370833333331493E-4</v>
-      </c>
-      <c r="AG15">
-        <f>1.25/3*ABS(V22-K17)</f>
-        <v>2.5993249999999488E-3</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" ref="AG15:AJ15" si="1">1.25/3*ABS(W22-L17)</f>
-        <v>3.486716666666658E-3</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="1"/>
-        <v>1.9014791666666087E-3</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="1"/>
-        <v>2.3839083333333788E-3</v>
-      </c>
     </row>
-    <row r="16" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>0.9</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -2077,96 +6026,98 @@
       <c r="N16">
         <v>0.9</v>
       </c>
-      <c r="Z16">
-        <f>(Z15-2)/2</f>
-        <v>7.9714807284039679E-2</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" ref="AA16:AD16" si="2">(AA15-2)/2</f>
-        <v>-8.0200567415752655E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="2"/>
-        <v>-2.8055930390732287E-2</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="2"/>
-        <v>5.1007470650363151E-2</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="2"/>
-        <v>-7.7691549524773751E-2</v>
-      </c>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
+        <v>0.9</v>
+      </c>
+      <c r="J17">
+        <v>0.14706911</v>
+      </c>
+      <c r="K17">
+        <v>0.40277829999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.61980851999999997</v>
+      </c>
+      <c r="M17">
+        <v>0.79806732999999996</v>
+      </c>
+      <c r="N17">
+        <v>0.94898307000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
-        <f>U*D16/(2*delta) + 1/(2*mu) * $H$10 * (D16^2-2*delta*D16)</f>
-        <v>0.19</v>
-      </c>
-      <c r="E17">
-        <f>U*E16/(2*delta) + 1/(2*mu) * $H$10 * (E16^2-2*delta*E16)</f>
-        <v>0.51</v>
-      </c>
-      <c r="F17">
-        <f>U*F16/(2*delta) + 1/(2*mu) * $H$10 * (F16^2-2*delta*F16)</f>
-        <v>0.75</v>
-      </c>
-      <c r="G17">
-        <f>U*G16/(2*delta) + 1/(2*mu) * $H$10 * (G16^2-2*delta*G16)</f>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="H17">
-        <f>U*H16/(2*delta) + 1/(2*mu) * $H$10 * (H16^2-2*delta*H16)</f>
-        <v>0.99</v>
-      </c>
-      <c r="J17">
-        <v>0.19132289999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.50137962000000003</v>
-      </c>
-      <c r="L17">
-        <v>0.73868188000000001</v>
-      </c>
-      <c r="M17">
-        <v>0.90401445000000002</v>
-      </c>
-      <c r="N17">
-        <v>0.99792338000000003</v>
+      <c r="D18">
+        <f>U*D17/(2*delta) + 1/(2*mu) * $H$11 * (D17^2-2*delta*D17)</f>
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="E18">
+        <f>U*E17/(2*delta) + 1/(2*mu) * $H$11 * (E17^2-2*delta*E17)</f>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="F18">
+        <f>U*F17/(2*delta) + 1/(2*mu) * $H$11 * (F17^2-2*delta*F17)</f>
+        <v>0.625</v>
+      </c>
+      <c r="G18">
+        <f>U*G17/(2*delta) + 1/(2*mu) * $H$11 * (G17^2-2*delta*G17)</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="H18">
+        <f>U*H17/(2*delta) + 1/(2*mu) * $H$11 * (H17^2-2*delta*H17)</f>
+        <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="AF18" t="s">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
       <c r="D20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
       </c>
+      <c r="U20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>0.05</v>
       </c>
@@ -2213,140 +6164,142 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <f>0.005+0.01*D17</f>
-        <v>6.8999999999999999E-3</v>
+        <f>0.02+0.01*D18</f>
+        <v>2.145E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:H22" si="3">0.005+0.01*E17</f>
-        <v>1.0100000000000001E-2</v>
+        <f t="shared" ref="E22:H22" si="5">0.02+0.01*E18</f>
+        <v>2.4050000000000002E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>1.4099999999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.8049999999999999E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>1.49E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.945E-2</v>
       </c>
       <c r="J22">
-        <v>9.8784559999999993E-2</v>
+        <v>7.4744389999999994E-2</v>
       </c>
       <c r="K22">
-        <v>0.27689047</v>
+        <v>0.21430405</v>
       </c>
       <c r="L22">
-        <v>0.43553106000000003</v>
+        <v>0.34381970000000001</v>
       </c>
       <c r="M22">
-        <v>0.57470578999999999</v>
+        <v>0.46322103999999997</v>
       </c>
       <c r="N22">
-        <v>0.69441463999999997</v>
+        <v>0.57254676000000004</v>
       </c>
       <c r="O22">
-        <v>0.79465015999999999</v>
+        <v>0.67197852999999996</v>
       </c>
       <c r="P22">
-        <v>0.87540375999999998</v>
+        <v>0.76179306999999996</v>
       </c>
       <c r="Q22">
-        <v>0.93676349999999997</v>
+        <v>0.84221409999999997</v>
       </c>
       <c r="R22">
-        <v>0.97887760999999995</v>
+        <v>0.91342548000000001</v>
       </c>
       <c r="S22">
-        <v>1.00064303</v>
+        <v>0.97532485999999996</v>
       </c>
       <c r="U22">
-        <f>-0.9738*AE27^2+1.9762*AE27+0.0024</f>
-        <v>0.19028200000000003</v>
+        <f>-0.4861*AE27^2+1.4853*AE27+0.0023</f>
+        <v>0.14596900000000002</v>
       </c>
       <c r="V22">
-        <f>-0.9738*AF27^2+1.9762*AF27+0.0024</f>
-        <v>0.5076179999999999</v>
+        <f>-0.4861*AF27^2+1.4853*AF27+0.0023</f>
+        <v>0.40414100000000003</v>
       </c>
       <c r="W22">
-        <f>-0.9738*AG27^2+1.9762*AG27+0.0024</f>
-        <v>0.74704999999999999</v>
+        <f>-0.4861*AG27^2+1.4853*AG27+0.0023</f>
+        <v>0.62342500000000001</v>
       </c>
       <c r="X22">
-        <f>-0.9738*AH27^2+1.9762*AH27+0.0024</f>
-        <v>0.90857799999999989</v>
+        <f>-0.4861*AH27^2+1.4853*AH27+0.0023</f>
+        <v>0.8038209999999999</v>
       </c>
       <c r="Y22">
-        <f>-0.9738*AI27^2+1.9762*AI27+0.0024</f>
-        <v>0.99220199999999992</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>18</v>
+        <f>-0.4861*AI27^2+1.4853*AI27+0.0023</f>
+        <v>0.94532899999999997</v>
       </c>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="AF23">
-        <f>AF15/2</f>
-        <v>2.1685416666665747E-4</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" ref="AG23:AJ23" si="4">AG15/2</f>
-        <v>1.2996624999999744E-3</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="4"/>
-        <v>1.743358333333329E-3</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="4"/>
-        <v>9.5073958333330433E-4</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="4"/>
-        <v>1.1919541666666894E-3</v>
-      </c>
-      <c r="AK23" t="s">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>23</v>
       </c>
       <c r="D24">
         <f>SQRT(D20^2+D22^2)</f>
-        <v>8.5211501571090739E-3</v>
+        <v>2.9327504155655659E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:H24" si="5">SQRT(E20^2+E22^2)</f>
-        <v>1.1269871339105874E-2</v>
+        <f t="shared" ref="E24:H24" si="6">SQRT(E20^2+E22^2)</f>
+        <v>3.1279426145631256E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>1.3462912017836262E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.3000946956110215E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>1.4960280746028797E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
-        <v>1.5716551784663198E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5599192406570127E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f>W12/2</f>
+        <v>2.2918958333333073E-4</v>
+      </c>
+      <c r="E26">
+        <f>X12/2</f>
+        <v>2.8389583333334378E-4</v>
+      </c>
+      <c r="F26">
+        <f>Y12/2</f>
+        <v>7.5343333333334028E-4</v>
+      </c>
+      <c r="G26">
+        <f>Z12/2</f>
+        <v>1.198681249999986E-3</v>
+      </c>
+      <c r="H26">
+        <f>AA12/2</f>
+        <v>7.612645833333469E-4</v>
+      </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
+      <c r="AE26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.3">
       <c r="J27">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2423,140 +6376,407 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <f>SQRT(D24^2+AF23^2)</f>
-        <v>8.5239090638978953E-3</v>
+        <f>Feuil2!D10</f>
+        <v>5.223098199999999E-3</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:H28" si="6">SQRT(E24^2+AG23^2)</f>
-        <v>1.1344563570887433E-2</v>
+        <f>Feuil2!E10</f>
+        <v>1.1161091799999997E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
-        <v>1.357531945400928E-2</v>
+        <f>Feuil2!F10</f>
+        <v>1.2409374999999992E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
-        <v>1.4990460491769981E-2</v>
+        <f>Feuil2!G10</f>
+        <v>1.0736459800000006E-2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
-        <v>1.5761686290985302E-2</v>
+        <f>Feuil2!H10</f>
+        <v>1.3958474199999992E-2</v>
       </c>
       <c r="J28">
-        <v>4.9840559999999999E-2</v>
+        <v>3.7555680000000001E-2</v>
       </c>
       <c r="K28">
-        <v>0.14455735</v>
+        <v>0.11015303</v>
       </c>
       <c r="L28">
-        <v>0.23430973999999999</v>
+        <v>0.18022560000000001</v>
       </c>
       <c r="M28">
-        <v>0.31909767</v>
+        <v>0.24776148000000001</v>
       </c>
       <c r="N28">
-        <v>0.39892105999999999</v>
+        <v>0.31274988999999997</v>
       </c>
       <c r="O28">
-        <v>0.47377991000000003</v>
+        <v>0.37518323999999997</v>
       </c>
       <c r="P28">
-        <v>0.54367416999999996</v>
+        <v>0.43505874999999999</v>
       </c>
       <c r="Q28">
-        <v>0.60860384999999995</v>
+        <v>0.49237985000000001</v>
       </c>
       <c r="R28">
-        <v>0.66856892999999995</v>
+        <v>0.54715720999999995</v>
       </c>
       <c r="S28">
-        <v>0.72356942000000002</v>
+        <v>0.59940886000000004</v>
       </c>
       <c r="T28">
-        <v>0.77360530000000005</v>
+        <v>0.64915937999999995</v>
       </c>
       <c r="U28">
-        <v>0.81867656</v>
+        <v>0.69643770000000005</v>
       </c>
       <c r="V28">
-        <v>0.85878326999999999</v>
+        <v>0.74127377000000005</v>
       </c>
       <c r="W28">
-        <v>0.89392548999999999</v>
+        <v>0.78369445000000004</v>
       </c>
       <c r="X28">
-        <v>0.92410228000000005</v>
+        <v>0.82371881000000002</v>
       </c>
       <c r="Y28">
-        <v>0.94931111999999995</v>
+        <v>0.86135295999999995</v>
       </c>
       <c r="Z28">
-        <v>0.96955669</v>
+        <v>0.89658848999999996</v>
       </c>
       <c r="AA28">
-        <v>0.98487902000000005</v>
+        <v>0.92941616999999999</v>
       </c>
       <c r="AB28">
-        <v>0.99525520999999995</v>
+        <v>0.95982349</v>
       </c>
       <c r="AC28">
-        <v>1.00033726</v>
+        <v>0.98761893999999995</v>
       </c>
       <c r="AE28">
-        <f>-0.9931*AE27^2+1.9938*AE27+0.0006</f>
-        <v>0.190049</v>
+        <f>-0.4962*AE27^2+1.4951*AE27+0.0011</f>
+        <v>0.145648</v>
       </c>
       <c r="AF28">
-        <f>-0.9931*AF27^2+1.9938*AF27+0.0006</f>
-        <v>0.50936100000000006</v>
+        <f>-0.4962*AF27^2+1.4951*AF27+0.0011</f>
+        <v>0.40497200000000005</v>
       </c>
       <c r="AG28">
-        <f>-0.9931*AG27^2+1.9938*AG27+0.0006</f>
-        <v>0.74922500000000003</v>
+        <f>-0.4962*AG27^2+1.4951*AG27+0.0011</f>
+        <v>0.62460000000000004</v>
       </c>
       <c r="AH28">
-        <f>-0.9931*AH27^2+1.9938*AH27+0.0006</f>
-        <v>0.90964100000000003</v>
+        <f>-0.4962*AH27^2+1.4951*AH27+0.0011</f>
+        <v>0.80453200000000002</v>
       </c>
       <c r="AI28">
-        <f>-0.9931*AI27^2+1.9938*AI27+0.0006</f>
-        <v>0.99060900000000018</v>
+        <f>-0.4962*AI27^2+1.4951*AI27+0.0011</f>
+        <v>0.94476800000000005</v>
       </c>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.3">
-      <c r="AF32" s="4" t="s">
-        <v>25</v>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <f>SQRT(D24^2+D26^2+D28^2)</f>
+        <v>2.9789860400343461E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:H30" si="7">SQRT(E24^2+E26^2+E28^2)</f>
+        <v>3.3212242727828717E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>3.5265035795790746E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>3.6104167429482678E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>3.8245536023932297E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="33" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE33" t="s">
-        <v>26</v>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <f>D30/D18</f>
+        <v>0.20544731310581696</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:H31" si="8">E30/E18</f>
+        <v>8.2005537599577086E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>5.6424057273265195E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>4.4849897427928796E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>4.0471466691991843E-2</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>0.1628*K31^4-0.4054*K31^3+0.3754*K31^2-0.148*K31+0.0181</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="M31">
+        <f>4.1754*K31^4-10.319*K31^3+9.4172*K31^2-3.8708*K31+0.7204</f>
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="N31">
+        <f>-3.8497*K31^4+9.5086*K31^3-8.6664*K31^2+3.5748*K31-0.6842</f>
+        <v>-0.68420000000000003</v>
+      </c>
+      <c r="O31">
+        <f>-N31-L31</f>
+        <v>0.66610000000000003</v>
       </c>
     </row>
-    <row r="34" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE34" t="s">
-        <v>27</v>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>0.1628*K32^4-0.4054*K32^3+0.3754*K32^2-0.148*K32+0.0181</f>
+        <v>2.900000000000038E-3</v>
+      </c>
+      <c r="M32">
+        <f>4.1754*K32^4-10.319*K32^3+9.4172*K32^2-3.8708*K32+0.7204</f>
+        <v>0.12319999999999831</v>
+      </c>
+      <c r="N32">
+        <f>-3.8497*K32^4+9.5086*K32^3-8.6664*K32^2+3.5748*K32-0.6842</f>
+        <v>-0.11690000000000011</v>
+      </c>
+      <c r="O32">
+        <f>-N32-L32</f>
+        <v>0.11400000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AC10:AG10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34CD074-0438-4E4F-A90D-D4CB97F810BE}">
+  <dimension ref="D4:M10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.35</v>
+      </c>
+      <c r="H4">
+        <v>0.45</v>
+      </c>
+      <c r="I4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.65</v>
+      </c>
+      <c r="K4">
+        <v>0.75</v>
+      </c>
+      <c r="L4">
+        <v>0.85</v>
+      </c>
+      <c r="M4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>7.5039999999999996E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.21501000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.34473999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.46412999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.57325000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.67229000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="K5">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.91308999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.97460000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>2.81E-3</v>
+      </c>
+      <c r="E6">
+        <v>7.1199999999999996E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.013E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.189E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.248E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.208E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.1129999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.0619999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.218E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.6670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>-0.4895*D8*D8+1.4871*D8+0.0028</f>
+        <v>0.146615</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:H9" si="0">-0.4895*E8*E8+1.4871*E8+0.0028</f>
+        <v>0.40487500000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.62397500000000006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.80391500000000005</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.94469500000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>-0.3278*D8^6+1.0096*D8^5-1.0717*D8^4+0.5335*D8^3-0.1923*D8^2+0.0691*D8-0.0002</f>
+        <v>5.223098199999999E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:H10" si="1">-0.3278*E8^6+1.0096*E8^5-1.0717*E8^4+0.5335*E8^3-0.1923*E8^2+0.0691*E8-0.0002</f>
+        <v>1.1161091799999997E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.2409374999999992E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0736459800000006E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.3958474199999992E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34CD074-0438-4E4F-A90D-D4CB97F810BE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tab recup valeur.xlsx
+++ b/tab recup valeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41b957a5f373fa68/Documents/insa lyon/DD/Cours/Hiv 2025/Vérification et validation/projet/Projet_MEC8211_Couette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{CE5E6969-56ED-4D85-86D2-F7300A8CB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351C84BE-7B87-4A3E-BFF3-D28EB065E51D}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{CE5E6969-56ED-4D85-86D2-F7300A8CB948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8763F02-7CFD-4738-B28D-150DAA0B7866}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1B229F5E-783A-4BEB-99B2-B9008BC5F977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B229F5E-783A-4BEB-99B2-B9008BC5F977}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Paramètres choisis :</t>
   </si>
@@ -131,12 +131,6 @@
     <t>U_input</t>
   </si>
   <si>
-    <t>\delta_{min}</t>
-  </si>
-  <si>
-    <t>\delta_{max}</t>
-  </si>
-  <si>
     <t>U_val (m/s)</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Prédiction</t>
   </si>
   <si>
-    <t>k u_val</t>
-  </si>
-  <si>
     <t>delta_{min}</t>
   </si>
   <si>
@@ -156,6 +147,33 @@
   </si>
   <si>
     <t>k u_{val}</t>
+  </si>
+  <si>
+    <t>p theo</t>
+  </si>
+  <si>
+    <t>E (%)</t>
+  </si>
+  <si>
+    <t>E (m/s)</t>
+  </si>
+  <si>
+    <t>\delta_{min} (%)</t>
+  </si>
+  <si>
+    <t>\delta_{max}(%)</t>
+  </si>
+  <si>
+    <t>k u_val (%)</t>
+  </si>
+  <si>
+    <t>\delta_{min} (m/s)</t>
+  </si>
+  <si>
+    <t>\delta_{max} (m/s)</t>
+  </si>
+  <si>
+    <t>k u_val (m/s)</t>
   </si>
 </sst>
 </file>
@@ -191,12 +209,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,12 +241,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1860,6 +1898,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-CE92-4B69-9893-F77B49CC4D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Prédiction 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3328000000000056E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8180-43F1-92B1-59E35ACA2E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5149,15 +5246,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1173480</xdr:colOff>
+      <xdr:colOff>8068</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>52443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495863</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>153470</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>307604</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5180,8 +5277,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758440" y="190500"/>
-          <a:ext cx="2468881" cy="511610"/>
+          <a:off x="1585856" y="231737"/>
+          <a:ext cx="2468995" cy="504438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5193,15 +5290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>385176</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>32370</xdr:rowOff>
+      <xdr:colOff>288195</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>365873</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9954</xdr:rowOff>
+      <xdr:colOff>268892</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>42858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5229,15 +5326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>259774</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:colOff>697924</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5669,10 +5766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C127CFE7-839D-4A27-9BA9-5910BBB87897}">
-  <dimension ref="C7:AI32"/>
+  <dimension ref="C5:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5684,6 +5781,11 @@
     <col min="32" max="32" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
@@ -5741,20 +5843,20 @@
       <c r="U7">
         <v>1.99</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AC7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="W7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AC7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -5803,43 +5905,43 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="7">
         <f>(U22-D18)/D18</f>
         <v>6.6827586206896382E-3</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="7">
         <f>(V22-E18)/E18</f>
         <v>-2.1209876543208475E-3</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="7">
         <f>(W22-F18)/F18</f>
         <v>-2.5199999999999888E-3</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="7">
         <f>(X22-G18)/G18</f>
         <v>-1.4645962732919766E-3</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="7">
         <f>(Y22-H18)/H18</f>
         <v>3.4814814814805573E-4</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="7">
         <f>W8-2*D31</f>
         <v>-0.4042118675909443</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="7">
         <f t="shared" ref="AD8:AG8" si="2">X8-2*E31</f>
         <v>-0.16613206285347501</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="7">
         <f t="shared" si="2"/>
         <v>-0.11536811454653038</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="7">
         <f t="shared" si="2"/>
         <v>-9.1164391129149563E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="7">
         <f t="shared" si="2"/>
         <v>-8.0594785235835631E-2</v>
       </c>
@@ -5873,13 +5975,20 @@
         <f>Re*mu/delta</f>
         <v>1</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
+      <c r="W10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AC10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
@@ -5895,31 +6004,44 @@
         <f>H9*2*mu*H10/(-4*delta*delta)</f>
         <v>-0.02</v>
       </c>
-      <c r="W11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AC11">
+      <c r="W11" s="6">
+        <f>U22-D18</f>
+        <v>9.6899999999999764E-4</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" ref="X11:AA11" si="3">V22-E18</f>
+        <v>-8.5899999999994314E-4</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.5749999999999931E-3</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.1790000000000411E-3</v>
+      </c>
+      <c r="AA11" s="6">
+        <f t="shared" si="3"/>
+        <v>3.289999999999127E-4</v>
+      </c>
+      <c r="AC11" s="7">
         <f>W8+2*D31</f>
         <v>0.41757738483232354</v>
       </c>
-      <c r="AD11">
-        <f t="shared" ref="AD11:AG11" si="3">X8+2*E31</f>
+      <c r="AD11" s="7">
+        <f t="shared" ref="AD11:AG11" si="4">X8+2*E31</f>
         <v>0.16189008754483333</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="3"/>
+      <c r="AE11" s="7">
+        <f t="shared" si="4"/>
         <v>0.1103281145465304</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="3"/>
+      <c r="AF11" s="7">
+        <f t="shared" si="4"/>
         <v>8.8235198582565622E-2</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="3"/>
+      <c r="AG11" s="7">
+        <f t="shared" si="4"/>
         <v>8.1291081532131743E-2</v>
       </c>
     </row>
@@ -5930,26 +6052,6 @@
       <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="W12">
-        <f>1.25/3*ABS(U22-J17)</f>
-        <v>4.5837916666666145E-4</v>
-      </c>
-      <c r="X12">
-        <f>1.25/3*ABS(V22-K17)</f>
-        <v>5.6779166666668756E-4</v>
-      </c>
-      <c r="Y12">
-        <f>1.25/3*ABS(W22-L17)</f>
-        <v>1.5068666666666806E-3</v>
-      </c>
-      <c r="Z12">
-        <f>1.25/3*ABS(X22-M17)</f>
-        <v>2.3973624999999721E-3</v>
-      </c>
-      <c r="AA12">
-        <f>1.25/3*ABS(Y22-N17)</f>
-        <v>1.5225291666666938E-3</v>
-      </c>
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
@@ -5958,29 +6060,40 @@
       <c r="E13" s="1">
         <v>0.01</v>
       </c>
-      <c r="AC13" t="s">
-        <v>36</v>
-      </c>
+      <c r="AC13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.3">
-      <c r="AC14">
+      <c r="W14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AC14" s="7">
         <f>2*D31</f>
         <v>0.41089462621163392</v>
       </c>
-      <c r="AD14">
-        <f t="shared" ref="AD14:AG14" si="4">2*E31</f>
+      <c r="AD14" s="7">
+        <f t="shared" ref="AD14:AG14" si="5">2*E31</f>
         <v>0.16401107519915417</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="4"/>
+      <c r="AE14" s="7">
+        <f t="shared" si="5"/>
         <v>0.11284811454653039</v>
       </c>
-      <c r="AF14">
-        <f t="shared" si="4"/>
+      <c r="AF14" s="7">
+        <f t="shared" si="5"/>
         <v>8.9699794855857592E-2</v>
       </c>
-      <c r="AG14">
-        <f t="shared" si="4"/>
+      <c r="AG14" s="7">
+        <f t="shared" si="5"/>
         <v>8.0942933383983687E-2</v>
       </c>
     </row>
@@ -6006,6 +6119,26 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
+      <c r="W15">
+        <f>1.25/3*ABS(U22-J17)</f>
+        <v>4.5837916666666145E-4</v>
+      </c>
+      <c r="X15">
+        <f>1.25/3*ABS(V22-K17)</f>
+        <v>5.6779166666668756E-4</v>
+      </c>
+      <c r="Y15">
+        <f>1.25/3*ABS(W22-L17)</f>
+        <v>1.5068666666666806E-3</v>
+      </c>
+      <c r="Z15">
+        <f>1.25/3*ABS(X22-M17)</f>
+        <v>2.3973624999999721E-3</v>
+      </c>
+      <c r="AA15">
+        <f>1.25/3*ABS(Y22-N17)</f>
+        <v>1.5225291666666938E-3</v>
+      </c>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -6061,6 +6194,13 @@
       <c r="N17">
         <v>0.94898307000000004</v>
       </c>
+      <c r="AC17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
@@ -6086,6 +6226,26 @@
         <f>U*H17/(2*delta) + 1/(2*mu) * $H$11 * (H17^2-2*delta*H17)</f>
         <v>0.94500000000000006</v>
       </c>
+      <c r="AC18" s="6">
+        <f>W11-2*D30</f>
+        <v>-5.8610720800686925E-2</v>
+      </c>
+      <c r="AD18" s="6">
+        <f t="shared" ref="AD18:AG18" si="6">X11-2*E30</f>
+        <v>-6.7283485455657377E-2</v>
+      </c>
+      <c r="AE18" s="6">
+        <f t="shared" si="6"/>
+        <v>-7.2105071591581485E-2</v>
+      </c>
+      <c r="AF18" s="6">
+        <f t="shared" si="6"/>
+        <v>-7.3387334858965397E-2</v>
+      </c>
+      <c r="AG18" s="6">
+        <f t="shared" si="6"/>
+        <v>-7.6162072047864682E-2</v>
+      </c>
     </row>
     <row r="20" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
@@ -6116,6 +6276,13 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
+      <c r="AC20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.3">
       <c r="J21">
@@ -6163,6 +6330,26 @@
       <c r="Y21">
         <v>0.9</v>
       </c>
+      <c r="AC21" s="6">
+        <f>W11+2*D30</f>
+        <v>6.054872080068692E-2</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" ref="AD21:AG21" si="7">X11+2*E30</f>
+        <v>6.5565485455657491E-2</v>
+      </c>
+      <c r="AE21" s="6">
+        <f t="shared" si="7"/>
+        <v>6.8955071591581499E-2</v>
+      </c>
+      <c r="AF21" s="6">
+        <f t="shared" si="7"/>
+        <v>7.1029334858965315E-2</v>
+      </c>
+      <c r="AG21" s="6">
+        <f t="shared" si="7"/>
+        <v>7.6820072047864507E-2</v>
+      </c>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
@@ -6173,19 +6360,19 @@
         <v>2.145E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:H22" si="5">0.02+0.01*E18</f>
+        <f t="shared" ref="E22:H22" si="8">0.02+0.01*E18</f>
         <v>2.4050000000000002E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6250000000000002E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8049999999999999E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.945E-2</v>
       </c>
       <c r="J22">
@@ -6239,53 +6426,82 @@
         <v>0.94532899999999997</v>
       </c>
     </row>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="AC23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+    </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <f>SQRT(D20^2+D22^2)</f>
         <v>2.9327504155655659E-2</v>
       </c>
-      <c r="E24">
-        <f t="shared" ref="E24:H24" si="6">SQRT(E20^2+E22^2)</f>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:H24" si="9">SQRT(E20^2+E22^2)</f>
         <v>3.1279426145631256E-2</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
+      <c r="F24" s="6">
+        <f t="shared" si="9"/>
         <v>3.3000946956110215E-2</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
+      <c r="G24" s="6">
+        <f t="shared" si="9"/>
         <v>3.4450000000000001E-2</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
+      <c r="H24" s="6">
+        <f t="shared" si="9"/>
         <v>3.5599192406570127E-2</v>
+      </c>
+      <c r="AC24" s="6">
+        <f>2*D30</f>
+        <v>5.9579720800686922E-2</v>
+      </c>
+      <c r="AD24" s="6">
+        <f t="shared" ref="AD24:AG24" si="10">2*E30</f>
+        <v>6.6424485455657434E-2</v>
+      </c>
+      <c r="AE24" s="6">
+        <f t="shared" si="10"/>
+        <v>7.0530071591581492E-2</v>
+      </c>
+      <c r="AF24" s="6">
+        <f t="shared" si="10"/>
+        <v>7.2208334858965356E-2</v>
+      </c>
+      <c r="AG24" s="6">
+        <f t="shared" si="10"/>
+        <v>7.6491072047864594E-2</v>
       </c>
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D26">
-        <f>W12/2</f>
+      <c r="D26" s="6">
+        <f>W15/2</f>
         <v>2.2918958333333073E-4</v>
       </c>
-      <c r="E26">
-        <f>X12/2</f>
+      <c r="E26" s="6">
+        <f>X15/2</f>
         <v>2.8389583333334378E-4</v>
       </c>
-      <c r="F26">
-        <f>Y12/2</f>
+      <c r="F26" s="6">
+        <f>Y15/2</f>
         <v>7.5343333333334028E-4</v>
       </c>
-      <c r="G26">
-        <f>Z12/2</f>
+      <c r="G26" s="6">
+        <f>Z15/2</f>
         <v>1.198681249999986E-3</v>
       </c>
-      <c r="H26">
-        <f>AA12/2</f>
+      <c r="H26" s="6">
+        <f>AA15/2</f>
         <v>7.612645833333469E-4</v>
       </c>
       <c r="J26" t="s">
@@ -6377,26 +6593,26 @@
       </c>
     </row>
     <row r="28" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <f>Feuil2!D10</f>
         <v>5.223098199999999E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <f>Feuil2!E10</f>
         <v>1.1161091799999997E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f>Feuil2!F10</f>
         <v>1.2409374999999992E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <f>Feuil2!G10</f>
         <v>1.0736459800000006E-2</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <f>Feuil2!H10</f>
         <v>1.3958474199999992E-2</v>
       </c>
@@ -6482,31 +6698,31 @@
       </c>
     </row>
     <row r="30" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="6">
         <f>SQRT(D24^2+D26^2+D28^2)</f>
         <v>2.9789860400343461E-2</v>
       </c>
-      <c r="E30">
-        <f t="shared" ref="E30:H30" si="7">SQRT(E24^2+E26^2+E28^2)</f>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30:H30" si="11">SQRT(E24^2+E26^2+E28^2)</f>
         <v>3.3212242727828717E-2</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
+      <c r="F30" s="6">
+        <f t="shared" si="11"/>
         <v>3.5265035795790746E-2</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="7"/>
+      <c r="G30" s="6">
+        <f t="shared" si="11"/>
         <v>3.6104167429482678E-2</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
+      <c r="H30" s="6">
+        <f t="shared" si="11"/>
         <v>3.8245536023932297E-2</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
@@ -6515,37 +6731,37 @@
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="7">
         <f>D30/D18</f>
         <v>0.20544731310581696</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:H31" si="8">E30/E18</f>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31:H31" si="12">E30/E18</f>
         <v>8.2005537599577086E-2</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="8"/>
+      <c r="F31" s="7">
+        <f t="shared" si="12"/>
         <v>5.6424057273265195E-2</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="8"/>
+      <c r="G31" s="7">
+        <f t="shared" si="12"/>
         <v>4.4849897427928796E-2</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="8"/>
+      <c r="H31" s="7">
+        <f t="shared" si="12"/>
         <v>4.0471466691991843E-2</v>
       </c>
       <c r="K31">
@@ -6589,14 +6805,40 @@
         <v>0.11400000000000007</v>
       </c>
     </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0.2</v>
+      </c>
+      <c r="L33">
+        <f>0.1628*K33^4-0.4054*K33^3+0.3754*K33^2-0.148*K33+0.0181</f>
+        <v>5.3328000000000056E-4</v>
+      </c>
+      <c r="M33">
+        <f>4.1754*K33^4-10.319*K33^3+9.4172*K33^2-3.8708*K33+0.7204</f>
+        <v>0.24705663999999994</v>
+      </c>
+      <c r="N33">
+        <f>-3.8497*K33^4+9.5086*K33^3-8.6664*K33^2+3.5748*K33-0.6842</f>
+        <v>-0.24598671999999999</v>
+      </c>
+      <c r="O33">
+        <f>-N33-L33</f>
+        <v>0.24545343999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="AE26:AI26"/>
     <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="W14:AA14"/>
     <mergeCell ref="AC7:AG7"/>
     <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AC23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
